--- a/biology/Zoologie/Atopophrynus_syntomopus/Atopophrynus_syntomopus.xlsx
+++ b/biology/Zoologie/Atopophrynus_syntomopus/Atopophrynus_syntomopus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atopophrynus syntomopus, unique représentant du genre Atopophrynus, est une espèce d'amphibiens de la famille des Craugastoridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atopophrynus syntomopus, unique représentant du genre Atopophrynus, est une espèce d'amphibiens de la famille des Craugastoridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du département d'Antioquia en Colombie[1]. Elle se rencontre dans les environs de la municipalité de Sonsón, à environ 2 780 m d'altitude dans la cordillère Centrale.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du département d'Antioquia en Colombie. Elle se rencontre dans les environs de la municipalité de Sonsón, à environ 2 780 m d'altitude dans la cordillère Centrale.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa zone d'occupation de 10 km2 voit la dégradation de son habitat ce qui la classe parmi les espèces en danger critique d'extinction.
 </t>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 19,3 mm[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 19,3 mm.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de ce genre vient du grec atopos, étrange ou déplacé, et du grec phrynos, le crapaud[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de ce genre vient du grec atopos, étrange ou déplacé, et du grec phrynos, le crapaud.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Lynch &amp; Ruíz-Carranza, 1982 : A new genus and species of poison dart frog (Amphibia: Dendrobatidae) from the Andes of northern Colombia. Proceedings of the Biological Society of Washington, vol. 95, no 3, p. 557-562 (texte intégral).</t>
         </is>
